--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H2">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I2">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J2">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N2">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O2">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P2">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q2">
-        <v>44.12010879305274</v>
+        <v>186.507202379169</v>
       </c>
       <c r="R2">
-        <v>44.12010879305274</v>
+        <v>1678.564821412521</v>
       </c>
       <c r="S2">
-        <v>0.00960467250438002</v>
+        <v>0.03337787104704879</v>
       </c>
       <c r="T2">
-        <v>0.00960467250438002</v>
+        <v>0.03337787104704879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H3">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I3">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J3">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N3">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P3">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q3">
-        <v>54.85008936484103</v>
+        <v>68.33570813319901</v>
       </c>
       <c r="R3">
-        <v>54.85008936484103</v>
+        <v>615.021373198791</v>
       </c>
       <c r="S3">
-        <v>0.01194052235130095</v>
+        <v>0.01222955695481192</v>
       </c>
       <c r="T3">
-        <v>0.01194052235130095</v>
+        <v>0.01222955695481191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9814279080231</v>
+        <v>25.00841100000001</v>
       </c>
       <c r="H4">
-        <v>20.9814279080231</v>
+        <v>75.02523300000001</v>
       </c>
       <c r="I4">
-        <v>0.379444646294427</v>
+        <v>0.4156829172908309</v>
       </c>
       <c r="J4">
-        <v>0.379444646294427</v>
+        <v>0.415682917290831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N4">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P4">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q4">
-        <v>1644.050094081854</v>
+        <v>2067.889353371168</v>
       </c>
       <c r="R4">
-        <v>1644.050094081854</v>
+        <v>18611.00418034051</v>
       </c>
       <c r="S4">
-        <v>0.3578994514387461</v>
+        <v>0.3700754892889702</v>
       </c>
       <c r="T4">
-        <v>0.3578994514387461</v>
+        <v>0.3700754892889702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H5">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J5">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N5">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O5">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P5">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q5">
-        <v>42.82517291107929</v>
+        <v>152.854780081801</v>
       </c>
       <c r="R5">
-        <v>42.82517291107929</v>
+        <v>1375.693020736209</v>
       </c>
       <c r="S5">
-        <v>0.009322773039470182</v>
+        <v>0.02735533573723904</v>
       </c>
       <c r="T5">
-        <v>0.009322773039470182</v>
+        <v>0.02735533573723903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H6">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J6">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N6">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P6">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q6">
-        <v>53.24022595355301</v>
+        <v>56.005556381671</v>
       </c>
       <c r="R6">
-        <v>53.24022595355301</v>
+        <v>504.0500074350389</v>
       </c>
       <c r="S6">
-        <v>0.01159006512748195</v>
+        <v>0.01002291715804763</v>
       </c>
       <c r="T6">
-        <v>0.01159006512748195</v>
+        <v>0.01002291715804763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.3656179157908</v>
+        <v>20.496019</v>
       </c>
       <c r="H7">
-        <v>20.3656179157908</v>
+        <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3683078539983313</v>
+        <v>0.340679180727168</v>
       </c>
       <c r="J7">
-        <v>0.3683078539983313</v>
+        <v>0.3406791807271681</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N7">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O7">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P7">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q7">
-        <v>1595.79682551957</v>
+        <v>1694.769790715339</v>
       </c>
       <c r="R7">
-        <v>1595.79682551957</v>
+        <v>15252.92811643805</v>
       </c>
       <c r="S7">
-        <v>0.3473950158313792</v>
+        <v>0.3033009278318814</v>
       </c>
       <c r="T7">
-        <v>0.3473950158313792</v>
+        <v>0.3033009278318814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H8">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J8">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.1028172623171</v>
+        <v>7.457778999999999</v>
       </c>
       <c r="N8">
-        <v>2.1028172623171</v>
+        <v>22.373337</v>
       </c>
       <c r="O8">
-        <v>0.0253124470148074</v>
+        <v>0.08029647035915141</v>
       </c>
       <c r="P8">
-        <v>0.0253124470148074</v>
+        <v>0.0802964703591514</v>
       </c>
       <c r="Q8">
-        <v>29.33019938097489</v>
+        <v>109.3146280543473</v>
       </c>
       <c r="R8">
-        <v>29.33019938097489</v>
+        <v>983.831652489126</v>
       </c>
       <c r="S8">
-        <v>0.006385001470957201</v>
+        <v>0.01956326357486358</v>
       </c>
       <c r="T8">
-        <v>0.006385001470957201</v>
+        <v>0.01956326357486358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H9">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J9">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.61422099607753</v>
+        <v>2.732509</v>
       </c>
       <c r="N9">
-        <v>2.61422099607753</v>
+        <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764526</v>
       </c>
       <c r="P9">
-        <v>0.03146841698231734</v>
+        <v>0.02942039820764525</v>
       </c>
       <c r="Q9">
-        <v>36.46328400233678</v>
+        <v>40.05256859852734</v>
       </c>
       <c r="R9">
-        <v>36.46328400233678</v>
+        <v>360.473117386746</v>
       </c>
       <c r="S9">
-        <v>0.007937829503534454</v>
+        <v>0.007167924094785714</v>
       </c>
       <c r="T9">
-        <v>0.007937829503534454</v>
+        <v>0.007167924094785712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.9480495555072</v>
+        <v>14.65779933333333</v>
       </c>
       <c r="H10">
-        <v>13.9480495555072</v>
+        <v>43.973398</v>
       </c>
       <c r="I10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="J10">
-        <v>0.2522474997072417</v>
+        <v>0.243637901982001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.3573978515154</v>
+        <v>82.68775466666666</v>
       </c>
       <c r="N10">
-        <v>78.3573978515154</v>
+        <v>248.063264</v>
       </c>
       <c r="O10">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332034</v>
       </c>
       <c r="P10">
-        <v>0.9432191360028753</v>
+        <v>0.8902831314332033</v>
       </c>
       <c r="Q10">
-        <v>1092.93286827353</v>
+        <v>1212.020515227897</v>
       </c>
       <c r="R10">
-        <v>1092.93286827353</v>
+        <v>10908.18463705107</v>
       </c>
       <c r="S10">
-        <v>0.2379246687327501</v>
+        <v>0.2169067143123517</v>
       </c>
       <c r="T10">
-        <v>0.2379246687327501</v>
+        <v>0.2169067143123517</v>
       </c>
     </row>
   </sheetData>
